--- a/data/trans_camb/P1413-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-12.57361395423572</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.77822547725686</v>
+        <v>5.778225477256865</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.479324221327889</v>
@@ -664,7 +664,7 @@
         <v>-9.229473487109782</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.4685493802949</v>
+        <v>15.46854938029488</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.35624419289765</v>
+        <v>-14.15425425570672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.10727188929856</v>
+        <v>-16.37521455325503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.57073977686909</v>
+        <v>1.418484375887826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.995285245735471</v>
+        <v>-6.061135739037325</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.76576735768351</v>
+        <v>-10.58748916988454</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.94621147559893</v>
+        <v>18.44928139641377</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.177535003780376</v>
+        <v>-8.098753642974447</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.10598540417201</v>
+        <v>-11.84313018840217</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.5380059273763</v>
+        <v>12.67070737900071</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.433219383602909</v>
+        <v>-6.614808193096739</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.01953041713087</v>
+        <v>-9.094889883773771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.30979985307981</v>
+        <v>10.49363564068075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.007129586398994</v>
+        <v>1.141492410392666</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.185703479742496</v>
+        <v>-2.713644475968533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.38149946765145</v>
+        <v>25.48045203966913</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.994848030485023</v>
+        <v>-2.933086829474093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.545591246404135</v>
+        <v>-6.691946103969751</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.39080931865298</v>
+        <v>18.30394540495694</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4870008842751082</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2238020768895237</v>
+        <v>0.2238020768895239</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.084240358045491</v>
@@ -769,7 +769,7 @@
         <v>-0.3314809030685666</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5555602629881501</v>
+        <v>0.5555602629881494</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4856137790177288</v>
+        <v>-0.5033175595588683</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5830712776038061</v>
+        <v>-0.5835188449664196</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05534596909306284</v>
+        <v>0.05170777495059939</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1932351426337835</v>
+        <v>-0.1923538464825497</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3473611306940436</v>
+        <v>-0.3524348902848004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5810452318224555</v>
+        <v>0.5944304765646303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2784172798759437</v>
+        <v>-0.2777391935821212</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4139443147970707</v>
+        <v>-0.4098811516451454</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4308238731247132</v>
+        <v>0.4383226126740216</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2630966208380516</v>
+        <v>-0.2760152754517868</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3721531063370199</v>
+        <v>-0.3744713976462314</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4215664425378558</v>
+        <v>0.4397300821497571</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03531047718998614</v>
+        <v>0.0411924997652472</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1167632780739936</v>
+        <v>-0.1014846304667301</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9259461596341229</v>
+        <v>0.9337304421988115</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1121500427667925</v>
+        <v>-0.1120030287807203</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2451243149286256</v>
+        <v>-0.2498857788731753</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7008911524004731</v>
+        <v>0.7000302319220791</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-5.112042536860635</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.894772043329121</v>
+        <v>4.894772043329118</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.1581826037746314</v>
@@ -869,7 +869,7 @@
         <v>-2.08631547747656</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>12.19930876041042</v>
+        <v>12.19930876041043</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.863725185013337</v>
@@ -878,7 +878,7 @@
         <v>-3.6241075382134</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.514006535052863</v>
+        <v>8.514006535052859</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.114766268452512</v>
+        <v>-7.317079675913593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.954208335470044</v>
+        <v>-7.005517652104865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.712238323022464</v>
+        <v>2.596615850277875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.533227317940576</v>
+        <v>-2.60067192671873</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.386820148970539</v>
+        <v>-4.25593846743341</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.969789426330879</v>
+        <v>9.823334336716913</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.444903536775424</v>
+        <v>-4.286047915911297</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.086841376759245</v>
+        <v>-5.07559556177877</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.821432755223018</v>
+        <v>6.768645477621569</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.10090758282366</v>
+        <v>-3.486815672650615</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.113712186213297</v>
+        <v>-3.013729507758783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.331174899261065</v>
+        <v>7.149825702034954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.030324485221718</v>
+        <v>2.302877433619241</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3655022940500549</v>
+        <v>0.329939562614121</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.55699781241751</v>
+        <v>14.43844495945649</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.303128520101783</v>
+        <v>-1.216150580532867</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.180121722226667</v>
+        <v>-2.185244661101102</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.29679912879406</v>
+        <v>10.13781865977966</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4260787644242116</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.407969692998801</v>
+        <v>0.4079696929988008</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.01172907057252978</v>
@@ -974,7 +974,7 @@
         <v>-0.1546980571058737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9045656726626861</v>
+        <v>0.9045656726626865</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2251685220413855</v>
@@ -983,7 +983,7 @@
         <v>-0.2849557430891383</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6694379328649241</v>
+        <v>0.6694379328649239</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5499588502180018</v>
+        <v>-0.5488402666456222</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5340549606529376</v>
+        <v>-0.5336075558996152</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2024749707928899</v>
+        <v>0.1833007220121268</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1720324554143499</v>
+        <v>-0.1791453014472235</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2969596906467367</v>
+        <v>-0.2952822072634344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6647525465292781</v>
+        <v>0.6522304777181072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3272079569912421</v>
+        <v>-0.3179625606090621</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3735315726990897</v>
+        <v>-0.3751704041420023</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4927741206881688</v>
+        <v>0.5030402760869638</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2874149067803501</v>
+        <v>-0.3085780984747651</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2831474482599172</v>
+        <v>-0.2799896145494558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6755966761583224</v>
+        <v>0.6506986157018614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1656944236007008</v>
+        <v>0.1818571893029234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03156543780020104</v>
+        <v>0.0283763697236676</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.193184720620242</v>
+        <v>1.191838527228286</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1068206612994918</v>
+        <v>-0.1034841248666494</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1819976976356256</v>
+        <v>-0.1813776065094392</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8495150696464056</v>
+        <v>0.8567374447806251</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-4.681480586588539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.861453429246564</v>
+        <v>1.861453429246561</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8533845975916345</v>
@@ -1092,7 +1092,7 @@
         <v>-3.926203444021092</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.677382765380189</v>
+        <v>6.677382765380193</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.731666224350514</v>
+        <v>-9.590746583163599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.408824548965434</v>
+        <v>-8.377355485667202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.608994542381439</v>
+        <v>-1.980994320388954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.189891660403213</v>
+        <v>-3.480816854720856</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.56940605219356</v>
+        <v>-6.721299111101191</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.535420249932182</v>
+        <v>7.665032821755339</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.482511061753847</v>
+        <v>-5.394287995843889</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.546366377948754</v>
+        <v>-6.506896983449175</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.738837798148914</v>
+        <v>3.834609428450806</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.922421087556386</v>
+        <v>-3.023757802402047</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.226956530399428</v>
+        <v>-1.590177127671313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.826442817497131</v>
+        <v>5.512820828152481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.001918156329</v>
+        <v>5.234947148829962</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6380311517021365</v>
+        <v>0.4966149930767315</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.19335838834887</v>
+        <v>15.13106505645147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.08925560949452768</v>
+        <v>0.05579466733690013</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.234096775251651</v>
+        <v>-1.51934413204692</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.190006805684583</v>
+        <v>9.325444590099808</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4252734724565081</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1690975213994491</v>
+        <v>0.1690975213994488</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.08290230641885453</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3677228626632131</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6253945677019823</v>
+        <v>0.6253945677019827</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7521880358213359</v>
+        <v>-0.7495162971202711</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6442451745028107</v>
+        <v>-0.6353105179858307</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1369210993597531</v>
+        <v>-0.1432811244850293</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2725558462118784</v>
+        <v>-0.2893498215412227</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5290430083615802</v>
+        <v>-0.5419322867605454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5802255623811724</v>
+        <v>0.6167667090222021</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4633521472606856</v>
+        <v>-0.4487661362353513</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5400399360784511</v>
+        <v>-0.5408373808048712</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2959009777336939</v>
+        <v>0.3234721345980966</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.289008040041666</v>
+        <v>-0.3017522476334458</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1111825098422085</v>
+        <v>-0.1597935836717706</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6667165354451499</v>
+        <v>0.6291627514730014</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5943740099483255</v>
+        <v>0.6204754941163384</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08640222364455274</v>
+        <v>0.06478576708099026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.907237971206352</v>
+        <v>1.8640822213314</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01324265038355031</v>
+        <v>0.01899671674063857</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.128884108478722</v>
+        <v>-0.147326330764315</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9842312719235459</v>
+        <v>1.027454190169135</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.967662443179839</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.312704344358516</v>
+        <v>2.312704344358518</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.062634856005282</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.821112624493656</v>
+        <v>-8.630945668907543</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.527382727046922</v>
+        <v>-9.50622910993069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3985220099555574</v>
+        <v>0.4970032814932633</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.89728152707058</v>
+        <v>-3.006203169696662</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.148091473134152</v>
+        <v>-7.044076818514669</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.391602830435662</v>
+        <v>9.599107903967106</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.238148770818515</v>
+        <v>-5.269670924109128</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.896746075321508</v>
+        <v>-7.724766526663021</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.541042410069232</v>
+        <v>5.691568428060304</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.666613930674004</v>
+        <v>-5.464842377417408</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.352458446616353</v>
+        <v>-6.378237407658559</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.047869077504586</v>
+        <v>4.11670327460315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7990703489169048</v>
+        <v>0.7830241486249327</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.537403428673743</v>
+        <v>-3.581475537265782</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.02874993149186</v>
+        <v>13.13389284335282</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.813874883528463</v>
+        <v>-2.593914074064806</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.372555913202715</v>
+        <v>-5.314482468724305</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.185701298846414</v>
+        <v>8.341023745945355</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4923425764148336</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1429080139259546</v>
+        <v>0.1429080139259548</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05522531374194366</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2765267878171755</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5903779560853036</v>
+        <v>0.590377956085304</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2285556081509903</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5110896738072321</v>
+        <v>-0.5118552808295674</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5566601729380523</v>
+        <v>-0.5566404549922278</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02542397286103575</v>
+        <v>0.03017811421662727</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1419760789284032</v>
+        <v>-0.1459050617807951</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3556727129623367</v>
+        <v>-0.3527574194554807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4654179458757666</v>
+        <v>0.4717393251429823</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2853532242226552</v>
+        <v>-0.2862336758696239</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4262210959083528</v>
+        <v>-0.4223772038248463</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.299780675743473</v>
+        <v>0.3088357077632216</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.367170293469243</v>
+        <v>-0.3598352660007763</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4149208945872496</v>
+        <v>-0.4150593092500406</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2666031339878498</v>
+        <v>0.2739401945416518</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04528845410915089</v>
+        <v>0.04447746513590228</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1931549339727766</v>
+        <v>-0.1887405682817803</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7236870572893429</v>
+        <v>0.7189109044847604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1640263822082969</v>
+        <v>-0.153261745347249</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3126193618080276</v>
+        <v>-0.3084071477388213</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4865039402482418</v>
+        <v>0.492643718731934</v>
       </c>
     </row>
     <row r="28">
